--- a/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>166,79%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>151,31%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>171,94%</t>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 26,01</t>
+          <t>-2,2; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 23,96</t>
+          <t>-2,96; 3,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 12,09</t>
+          <t>-2,47; 1,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,48</t>
+          <t>-1,2; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 193,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,35; 1076,39</t>
+          <t>-64,31; 1014,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,62; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,14; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>-31,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 17,49</t>
+          <t>-8,72; 1,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 7,32</t>
+          <t>-2,82; 2,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,53</t>
+          <t>-1,85; 1,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,01</t>
+          <t>-1,63; 1,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 108,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,84; 90,98</t>
+          <t>-63,58; 28,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 172,35</t>
+          <t>-57,57; 104,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 249,82</t>
+          <t>-64,6; 174,54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-60,59; 157,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>120,35%</t>
+          <t>92,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107,96%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 3,75</t>
+          <t>-3,67; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,55</t>
+          <t>-1,5; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,76</t>
+          <t>-0,61; 2,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,24</t>
+          <t>-0,33; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 33,83</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 134,72</t>
+          <t>-45,56; 169,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 432,88</t>
+          <t>-51,91; 363,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 554,84</t>
+          <t>-44,44; 531,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-32,8; 471,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>-13,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,73</t>
+          <t>-5,34; 1,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,59</t>
+          <t>-5,46; 2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,09</t>
+          <t>-2,68; 1,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 56,19</t>
+          <t>-0,47; 0,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 82,62</t>
+          <t>-41,65; 17,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 160,92</t>
+          <t>-58,33; 57,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 207,87</t>
+          <t>-87,09; 313,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-12,58%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 1,33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 1,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 1,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 1,51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 0,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; 17,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,11; 46,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 88,01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-23,44; 170,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>87,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>33,87%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>62,77%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>10.51075365673657</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.794067312184634</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.558281951356672</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.254003624755208</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6279825671380619</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.103992583601107</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3480114026002766</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.641043772694783</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 8,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 3,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 1,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 1,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-64,31; 1014,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.86023096254267</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.099574037207439</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.344608537704205</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.035217578729029</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.6269427878074327</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8515681263128495</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.93972487267668</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.77737483894468</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.133223102580512</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.298027276899379</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>5.463086989371472</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-31,71%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-8,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-8,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 1,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 2,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 1,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 1,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-63,58; 28,54</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,57; 104,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-64,6; 174,54</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-60,59; 157,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>4.272814085679396</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.146127509665874</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9610912071706647</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.048889136325071</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2315985523228485</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3027446925098536</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2990107364547102</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6891133734787501</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,33%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>46,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>92,21%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>107,96%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.554593727658363</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.097747233494382</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.332870105158487</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.130183976082111</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.3638428873134454</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4391197619285202</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.610222086002095</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3181051147349417</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 6,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 4,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 2,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 2,8</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-45,56; 169,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-51,91; 363,56</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-44,44; 531,15</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; 471,41</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.32790957324107</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.547191104517752</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.458487301866059</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.147730526986362</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>1.111567842510877</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.034986326659904</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.359997884867514</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.015885998809241</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,54 +851,36 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-13,81%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-20,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-13,57%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
+      <c r="C10" s="5" t="n">
+        <v>2.293011160081626</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.233244062425595</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.836044525046106</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.944835790544568</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3108873758110257</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2505125472267111</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6724305054406983</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9897543440757196</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.229984831547334</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1049,197 +888,206 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 1,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 2,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-41,65; 17,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-58,33; 57,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-87,09; 313,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.218970843648582</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.792868182738372</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7870364419285131</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2859761709202614</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4267529190587064</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.489762164066604</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3931999866980896</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1987273633982357</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.871893846384044</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.889203864742363</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.61578667366676</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.275491818373726</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.76663965073746</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.737109151303597</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.011456287860703</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>7.029525342041639</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.550853925182842</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-12,58%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>43,84%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>90,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 1,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 1,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,51</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 0,34</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-33,08; 17,42</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-44,11; 46,69</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-39,86; 88,01</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-23,44; 170,01</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C13" s="5" t="n">
+        <v>2.518034175254102</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.286626233633804</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.295747960716118</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.977979054651657</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1548693664116691</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1774446827562161</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4420353058128279</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4586421276864674</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8635937277885778</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.276126393274503</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.003179806496648</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.7974421546146262</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1245341054963733</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2349413440429642</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1909794404279214</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.233049874745248</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02075049560067325</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.455632296775017</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.15301209400186</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.289831818259737</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.711312426435946</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7789981059246571</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7817720691937542</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.603156254538756</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.678517592110567</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.299545591677146</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
